--- a/biology/Botanique/Adoxaceae/Adoxaceae.xlsx
+++ b/biology/Botanique/Adoxaceae/Adoxaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Adoxacées est constituée de plantes dicotylédones ; elle comprend 3 à 5 genres.
 Ce sont des arbustes ou de petites plantes herbacées rhizomateuses des sous-bois des régions tempérées. Cette famille est représentée en France par l'adoxe moscatelline, les sureaux et les viornes.
@@ -512,10 +524,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Adoxa, issu du grec δοξα / doxa, « réputation » et du préfixe privatif α- (a-), le mot grec ἄδοξος / ádoxos signifiant « sans gloire ; obscur ; vulgaire », en référence aux fleurs de cette plante, petites et verdâtres, qui passent à peu près inaperçues[1].
-D’après Fournier, en donnant ce nom « Linné voulait, en même temps, relever comme « insignifiant » l’objection faite à son système »[2] ; en effet, le système de Linné, jugé artificiel, notamment en France, était donc peu conforme à la « doxa » de son époque.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Adoxa, issu du grec δοξα / doxa, « réputation » et du préfixe privatif α- (a-), le mot grec ἄδοξος / ádoxos signifiant « sans gloire ; obscur ; vulgaire », en référence aux fleurs de cette plante, petites et verdâtres, qui passent à peu près inaperçues.
+D’après Fournier, en donnant ce nom « Linné voulait, en même temps, relever comme « insignifiant » l’objection faite à son système » ; en effet, le système de Linné, jugé artificiel, notamment en France, était donc peu conforme à la « doxa » de son époque.
 </t>
         </is>
       </c>
@@ -544,13 +558,15 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification classique plaçait Adoxa dans la famille des Caprifoliacées[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification classique plaçait Adoxa dans la famille des Caprifoliacées.
 La classification phylogénétique plaça d'abord le genre Adoxa parmi les familles assignées directement (c'est-à-dire sans assignation à un ordre) au groupe des Campanulidées (euasterids II) (1998).
 Dès 2003 l'APG II assigna le genre à l'ordre des Dipsacales où il resta en APG III (2009) comme en APG IV (2016).
-À cette famille se sont ajoutés les genres Sambucus et Viburnum, placés parmi les Caprifoliacées dans la classification classique[2].
-À l'issue de la classification phylogénétique APG IV (2016)[3], les Adoxacées comptaient environ 200 espèces réparties en cinq genres.
+À cette famille se sont ajoutés les genres Sambucus et Viburnum, placés parmi les Caprifoliacées dans la classification classique.
+À l'issue de la classification phylogénétique APG IV (2016), les Adoxacées comptaient environ 200 espèces réparties en cinq genres.
 </t>
         </is>
       </c>
@@ -579,7 +595,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les plantes de cette famille ont des fleurs hermaphrodites discrètes, gamopétales, à ovaire infère et qui ont une symétrie radiaire. Leurs drupes ont 1 à 5 noyaux.
 Le genre Adoxa est représenté par des herbes grêles inférieures à 20 cm. Sambucus par des arbustes et plantes herbacées sans bourgeon terminal, aux drupes à 3-5 noyaux, dotés de feuilles composées au limbe penné à 3-11 folioles. Viburnum par des arbrisseaux ou petits arbres, avec bourgeon terminal, aux drupes à un noyau, dotés de feuilles à limbe simple ou lobé.
@@ -611,19 +629,21 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (4 août 2015)[4] et NCBI  (4 août 2015)[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (4 août 2015) et NCBI  (4 août 2015) :
 Adoxa
 Sambucus
 Sinadoxa (en)
 Tetradoxa (en)
 Viburnum
-Selon DELTA Angio           (4 août 2015)[6] :
+Selon DELTA Angio           (4 août 2015) :
 Adoxa
 Sinadoxa
 Tetradoxa
-Selon ITIS      (4 août 2015)[7] :
+Selon ITIS      (4 août 2015) :
 Adoxa
 Sambucus
 Viburnum</t>
@@ -654,9 +674,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (12 Jul 2010)[8] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (12 Jul 2010) :
 genre Adoxa
 Adoxa moschatellina
 Adoxa orientalis
